--- a/AssignmentResults.xlsx
+++ b/AssignmentResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paul.vesey\GitHub\CivilEngineeringL7Y2IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CivilEngineeringL7Y2IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43917691-4B57-4AA2-AA2B-A7F06D9C7728}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852315F0-4F9E-4DE4-A263-2ED73E79C1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7050" xr2:uid="{4F65BF9A-FD39-4B95-BD86-10D69504C0DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F65BF9A-FD39-4B95-BD86-10D69504C0DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="33">
   <si>
     <t>Jordan Soundy</t>
   </si>
@@ -34,9 +40,6 @@
   </si>
   <si>
     <t>Sarah O Gorman</t>
-  </si>
-  <si>
-    <t>Darryl Makoni</t>
   </si>
   <si>
     <t>Christopher Corbett Lonergan</t>
@@ -73,9 +76,6 @@
   </si>
   <si>
     <t>John Landers</t>
-  </si>
-  <si>
-    <t>Sean Dillon</t>
   </si>
   <si>
     <t>Philip Kinsella</t>
@@ -119,12 +119,31 @@
   <si>
     <t xml:space="preserve"> --- PAGE 3 ---</t>
   </si>
+  <si>
+    <t>Darryl Makoni (Wrong Submission)</t>
+  </si>
+  <si>
+    <t>Sean Dillon (Empty Folder)</t>
+  </si>
+  <si>
+    <t>Recheck</t>
+  </si>
+  <si>
+    <t>CrossChecked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,10 +202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -210,9 +236,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,24 +557,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50552270-085C-4F30-8298-CA65301B8A2B}">
-  <dimension ref="A1:W131"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C133" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
-    <col min="3" max="20" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="14"/>
-    <col min="23" max="23" width="1.42578125" style="7" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.109375" style="7"/>
+    <col min="2" max="2" width="19.109375" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.44140625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="14"/>
+    <col min="23" max="23" width="1.44140625" style="7" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="145.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="5" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -554,57 +594,57 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="10"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -629,9 +669,9 @@
       <c r="V2" s="11"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -656,9 +696,9 @@
       <c r="V3" s="11"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -683,9 +723,9 @@
       <c r="V4" s="11"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -710,9 +750,9 @@
       <c r="V5" s="11"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>2.6249999999999999E-2</v>
@@ -733,27 +773,53 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="12">
         <v>1</v>
       </c>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y6" s="7">
+        <f>SUM(C6:T6)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>0.233333333333333</v>
@@ -774,27 +840,53 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
       <c r="U7" s="3"/>
       <c r="V7" s="12">
         <v>1</v>
       </c>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y7" s="7">
+        <f t="shared" ref="Y7:Y12" si="0">SUM(C7:T7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>4.9999999999999899E-2</v>
@@ -815,27 +907,53 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="12">
         <v>1</v>
       </c>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y8" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>3.2812499999999903E-5</v>
@@ -856,27 +974,53 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="12">
         <v>1</v>
       </c>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
         <v>1.7864583333333301E-4</v>
@@ -897,27 +1041,53 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="12">
         <v>1</v>
       </c>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y10" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4">
         <v>9.8437499999999906E-5</v>
@@ -938,27 +1108,53 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
       <c r="U11" s="3"/>
       <c r="V11" s="12">
         <v>1</v>
       </c>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y11" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
         <v>1.6078124999999899E-3</v>
@@ -979,27 +1175,51 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="12">
         <v>1</v>
       </c>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1026,9 +1246,9 @@
       </c>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1055,9 +1275,9 @@
       </c>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>6.9999999999999896E-2</v>
@@ -1078,27 +1298,51 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
       <c r="U15" s="3"/>
       <c r="V15" s="12">
         <v>1</v>
       </c>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y15" s="7">
+        <f t="shared" ref="Y15:Y21" si="1">SUM(C15:T15)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
         <v>0.233333333333333</v>
@@ -1119,16 +1363,32 @@
       <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -1136,10 +1396,14 @@
         <v>1</v>
       </c>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y16" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
         <v>6.6666666666666596E-2</v>
@@ -1160,27 +1424,49 @@
       <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="12">
         <v>1</v>
       </c>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y17" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
         <v>1.5555555555555499E-4</v>
@@ -1201,27 +1487,51 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="12">
         <v>1</v>
       </c>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y18" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
         <v>1.9055555555555501E-3</v>
@@ -1242,27 +1552,51 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
       <c r="U19" s="3"/>
       <c r="V19" s="12">
         <v>1</v>
       </c>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y19" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3">
         <v>4.6666666666666601E-4</v>
@@ -1281,27 +1615,51 @@
         <v>1</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="12">
         <v>1</v>
       </c>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y20" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3">
         <v>5.7166666666666598E-3</v>
@@ -1322,27 +1680,49 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="12">
         <v>1</v>
       </c>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1367,9 +1747,9 @@
       <c r="V22" s="13"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1394,9 +1774,9 @@
       <c r="V23" s="13"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3">
         <v>1.65</v>
@@ -1417,27 +1797,51 @@
       <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
       <c r="U24" s="3"/>
       <c r="V24" s="12">
         <v>1</v>
       </c>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y24" s="7">
+        <f t="shared" ref="Y24:Y30" si="2">SUM(C24:T24)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>1.2333333333333301</v>
@@ -1458,16 +1862,30 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -1475,10 +1893,14 @@
         <v>1</v>
       </c>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y25" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>0.5</v>
@@ -1499,27 +1921,47 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
       <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
       <c r="U26" s="3"/>
       <c r="V26" s="12">
         <v>1</v>
       </c>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y26" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3">
         <v>0.20624999999999999</v>
@@ -1540,27 +1982,45 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
       <c r="U27" s="3"/>
       <c r="V27" s="12">
         <v>1</v>
       </c>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y27" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
         <v>0.34741666666666599</v>
@@ -1577,27 +2037,45 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
       <c r="U28" s="3"/>
       <c r="V28" s="12">
         <v>1</v>
       </c>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y28" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0.61875000000000002</v>
@@ -1618,25 +2096,41 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
       <c r="U29" s="3"/>
       <c r="V29" s="12">
         <v>1</v>
       </c>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y29" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3">
         <v>2.8572500000000001</v>
@@ -1661,23 +2155,37 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
       <c r="U30" s="3"/>
       <c r="V30" s="12">
         <v>1</v>
       </c>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1702,9 +2210,9 @@
       <c r="V31" s="13"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1729,9 +2237,9 @@
       <c r="V32" s="13"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3">
         <v>15</v>
@@ -1750,27 +2258,51 @@
       <c r="H33" s="3">
         <v>1</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1</v>
+      </c>
       <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="T33" s="3">
+        <v>1</v>
+      </c>
       <c r="U33" s="3"/>
       <c r="V33" s="12">
         <v>1</v>
       </c>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y33" s="7">
+        <f t="shared" ref="Y33:Y40" si="3">SUM(C33:T33)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3">
         <v>1.5</v>
@@ -1791,27 +2323,51 @@
       <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>1</v>
+      </c>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="T34" s="3">
+        <v>1</v>
+      </c>
       <c r="U34" s="3"/>
       <c r="V34" s="12">
         <v>1</v>
       </c>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y34" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3">
         <v>2.5</v>
@@ -1830,27 +2386,51 @@
       <c r="H35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3">
+        <v>1</v>
+      </c>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="T35" s="3">
+        <v>1</v>
+      </c>
       <c r="U35" s="3"/>
       <c r="V35" s="12">
         <v>1</v>
       </c>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y35" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
         <v>31.25</v>
@@ -1867,27 +2447,51 @@
       <c r="H36" s="3">
         <v>1</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>1</v>
+      </c>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="3">
+        <v>1</v>
+      </c>
       <c r="U36" s="3"/>
       <c r="V36" s="12">
         <v>1</v>
       </c>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y36" s="7">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
         <v>11.25</v>
@@ -1906,27 +2510,51 @@
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>1</v>
+      </c>
+      <c r="R37" s="3">
+        <v>1</v>
+      </c>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="T37" s="3">
+        <v>1</v>
+      </c>
       <c r="U37" s="3"/>
       <c r="V37" s="12">
         <v>1</v>
       </c>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y37" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="3">
         <v>125</v>
@@ -1943,27 +2571,49 @@
       <c r="H38" s="3">
         <v>1</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1</v>
+      </c>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="T38" s="3">
+        <v>1</v>
+      </c>
       <c r="U38" s="3"/>
       <c r="V38" s="12">
         <v>1</v>
       </c>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y38" s="7">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>45</v>
@@ -1982,27 +2632,51 @@
       <c r="H39" s="3">
         <v>1</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
       <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>1</v>
+      </c>
       <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="T39" s="3">
+        <v>1</v>
+      </c>
       <c r="U39" s="3"/>
       <c r="V39" s="12">
         <v>1</v>
       </c>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y39" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3">
         <v>42.5</v>
@@ -2021,27 +2695,51 @@
       <c r="H40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="3">
+        <v>1</v>
+      </c>
       <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="T40" s="3">
+        <v>1</v>
+      </c>
       <c r="U40" s="3"/>
       <c r="V40" s="12">
         <v>1</v>
       </c>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2066,9 +2764,9 @@
       <c r="V41" s="13"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2093,9 +2791,9 @@
       <c r="V42" s="13"/>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" s="3">
         <v>2.6516504294495502</v>
@@ -2116,13 +2814,23 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -2131,10 +2839,14 @@
         <v>1</v>
       </c>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y43" s="7">
+        <f t="shared" ref="Y43:Y49" si="4">SUM(C43:T43)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3">
         <v>1.78033008588991</v>
@@ -2149,14 +2861,24 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
       <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="Q44" s="3">
+        <v>1</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1</v>
+      </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -2164,10 +2886,14 @@
         <v>1</v>
       </c>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y44" s="7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="3">
         <v>0.53033008588991004</v>
@@ -2186,14 +2912,24 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
       <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1</v>
+      </c>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -2201,10 +2937,14 @@
         <v>1</v>
       </c>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y45" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="3">
         <v>0.24859222776089501</v>
@@ -2221,14 +2961,22 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="Q46" s="3">
+        <v>1</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1</v>
+      </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -2236,10 +2984,14 @@
         <v>1</v>
       </c>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y46" s="7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="3">
         <v>1.62966015976587</v>
@@ -2254,14 +3006,18 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="R47" s="3">
+        <v>1</v>
+      </c>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -2269,10 +3025,14 @@
         <v>1</v>
       </c>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y47" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="3">
         <v>0.99436891104358205</v>
@@ -2293,8 +3053,12 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1</v>
+      </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -2302,41 +3066,52 @@
         <v>1</v>
       </c>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="3">
-        <v>-3.8271723977484502</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="12">
-        <v>1</v>
-      </c>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="15">
+        <v>10.034265639063401</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="16">
+        <v>1</v>
+      </c>
+      <c r="W49" s="15"/>
+      <c r="X49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y49" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2361,9 +3136,9 @@
       <c r="V50" s="12"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2388,9 +3163,9 @@
       <c r="V51" s="12"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2415,9 +3190,9 @@
       <c r="V52" s="12"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2442,9 +3217,9 @@
       <c r="V53" s="12"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2469,9 +3244,9 @@
       <c r="V54" s="12"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" s="3">
         <v>4.5238934211692996</v>
@@ -2492,16 +3267,36 @@
       <c r="H55" s="3">
         <v>1</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3">
+        <v>1</v>
+      </c>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -2509,10 +3304,14 @@
         <v>1</v>
       </c>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y55" s="7">
+        <f t="shared" ref="Y55:Y62" si="5">SUM(C55:T55)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" s="3">
         <v>1.2</v>
@@ -2533,16 +3332,36 @@
       <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3">
+        <v>1</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
+        <v>1</v>
+      </c>
+      <c r="P56" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>1</v>
+      </c>
+      <c r="R56" s="3">
+        <v>1</v>
+      </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
@@ -2550,10 +3369,14 @@
         <v>1</v>
       </c>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y56" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3">
         <v>1.2</v>
@@ -2574,16 +3397,36 @@
       <c r="H57" s="3">
         <v>1</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1</v>
+      </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -2591,10 +3434,14 @@
         <v>1</v>
       </c>
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y57" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="3">
         <v>1.62860163162094</v>
@@ -2615,16 +3462,36 @@
       <c r="H58" s="3">
         <v>1</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1</v>
+      </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -2632,10 +3499,14 @@
         <v>1</v>
       </c>
       <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y58" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" s="3">
         <v>1.62860163162094</v>
@@ -2656,16 +3527,36 @@
       <c r="H59" s="3">
         <v>1</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1</v>
+      </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -2673,10 +3564,14 @@
         <v>1</v>
       </c>
       <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y59" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" s="3">
         <v>8.14300815810474</v>
@@ -2697,16 +3592,36 @@
       <c r="H60" s="3">
         <v>1</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1</v>
+      </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -2714,10 +3629,14 @@
         <v>1</v>
       </c>
       <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y60" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" s="3">
         <v>8.14300815810474</v>
@@ -2738,16 +3657,36 @@
       <c r="H61" s="3">
         <v>1</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1</v>
+      </c>
+      <c r="P61" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1</v>
+      </c>
+      <c r="R61" s="3">
+        <v>1</v>
+      </c>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
@@ -2755,10 +3694,14 @@
         <v>1</v>
       </c>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y61" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="3">
         <v>3.2572032632418901</v>
@@ -2779,16 +3722,36 @@
       <c r="H62" s="3">
         <v>1</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+      <c r="R62" s="3">
+        <v>1</v>
+      </c>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -2796,10 +3759,14 @@
         <v>1</v>
       </c>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y62" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2824,9 +3791,9 @@
       <c r="V63" s="13"/>
       <c r="W63" s="8"/>
     </row>
-    <row r="64" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2851,9 +3818,9 @@
       <c r="V64" s="13"/>
       <c r="W64" s="8"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B65" s="3">
         <v>1.9163715186897701</v>
@@ -2874,16 +3841,34 @@
       <c r="H65" s="3">
         <v>1</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1</v>
+      </c>
       <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
+      <c r="O65" s="3">
+        <v>1</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>1</v>
+      </c>
+      <c r="R65" s="3">
+        <v>1</v>
+      </c>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
@@ -2891,10 +3876,14 @@
         <v>1</v>
       </c>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y65" s="7">
+        <f t="shared" ref="Y65:Y72" si="6">SUM(C65:T65)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B66" s="3">
         <v>3.1</v>
@@ -2915,16 +3904,36 @@
       <c r="H66" s="3">
         <v>1</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1</v>
+      </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
@@ -2932,10 +3941,14 @@
         <v>1</v>
       </c>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y66" s="7">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3">
         <v>3.1</v>
@@ -2956,16 +3969,36 @@
       <c r="H67" s="3">
         <v>1</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1</v>
+      </c>
+      <c r="P67" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>1</v>
+      </c>
+      <c r="R67" s="3">
+        <v>1</v>
+      </c>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
@@ -2973,10 +4006,14 @@
         <v>1</v>
       </c>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y67" s="7">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B68" s="3">
         <v>8.9159184907041702</v>
@@ -2997,16 +4034,36 @@
       <c r="H68" s="3">
         <v>1</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1</v>
+      </c>
+      <c r="P68" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>1</v>
+      </c>
+      <c r="R68" s="3">
+        <v>1</v>
+      </c>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -3014,10 +4071,14 @@
         <v>1</v>
       </c>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y68" s="7">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69" s="3">
         <v>8.9159184907041702</v>
@@ -3038,16 +4099,36 @@
       <c r="H69" s="3">
         <v>1</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
+      <c r="M69" s="3">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <v>1</v>
+      </c>
+      <c r="P69" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>1</v>
+      </c>
+      <c r="R69" s="3">
+        <v>1</v>
+      </c>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
@@ -3055,10 +4136,14 @@
         <v>1</v>
       </c>
       <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y69" s="7">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B70" s="3">
         <v>27.332248785312899</v>
@@ -3079,16 +4164,30 @@
       <c r="H70" s="3">
         <v>1</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1</v>
+      </c>
+      <c r="P70" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1</v>
+      </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -3096,10 +4195,14 @@
         <v>1</v>
       </c>
       <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y70" s="7">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B71" s="3">
         <v>27.332248785312899</v>
@@ -3120,16 +4223,30 @@
       <c r="H71" s="3">
         <v>1</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1</v>
+      </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
+      <c r="N71" s="3">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1</v>
+      </c>
+      <c r="P71" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>1</v>
+      </c>
+      <c r="R71" s="3">
+        <v>1</v>
+      </c>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -3137,10 +4254,14 @@
         <v>1</v>
       </c>
       <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y71" s="7">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" s="3">
         <v>17.831836981408301</v>
@@ -3161,16 +4282,34 @@
       <c r="H72" s="3">
         <v>1</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1</v>
+      </c>
       <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
+      <c r="O72" s="3">
+        <v>1</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1</v>
+      </c>
+      <c r="R72" s="3">
+        <v>1</v>
+      </c>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
@@ -3178,10 +4317,14 @@
         <v>1</v>
       </c>
       <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y72" s="7">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3206,9 +4349,9 @@
       <c r="V73" s="13"/>
       <c r="W73" s="8"/>
     </row>
-    <row r="74" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3233,9 +4376,9 @@
       <c r="V74" s="13"/>
       <c r="W74" s="8"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B75" s="3">
         <v>0.88357293382212898</v>
@@ -3256,15 +4399,33 @@
       <c r="H75" s="3">
         <v>1</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1</v>
+      </c>
+      <c r="N75" s="3">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1</v>
+      </c>
+      <c r="P75" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>1</v>
+      </c>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
@@ -3273,10 +4434,14 @@
         <v>1</v>
       </c>
       <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y75" s="7">
+        <f t="shared" ref="Y75:Y81" si="7">SUM(C75:T75)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B76" s="3">
         <v>0.75</v>
@@ -3297,16 +4462,36 @@
       <c r="H76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1</v>
+      </c>
+      <c r="P76" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1</v>
+      </c>
+      <c r="R76" s="3">
+        <v>1</v>
+      </c>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
@@ -3314,10 +4499,14 @@
         <v>1</v>
       </c>
       <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y76" s="7">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B77" s="3">
         <v>0.31830988618379003</v>
@@ -3338,16 +4527,34 @@
       <c r="H77" s="3">
         <v>1</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1</v>
+      </c>
       <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+      <c r="N77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3">
+        <v>1</v>
+      </c>
+      <c r="P77" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>1</v>
+      </c>
+      <c r="R77" s="3">
+        <v>1</v>
+      </c>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
@@ -3355,10 +4562,14 @@
         <v>1</v>
       </c>
       <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y77" s="7">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B78" s="3">
         <v>3.4727788329545803E-2</v>
@@ -3373,16 +4584,34 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+      <c r="I78" s="3">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1</v>
+      </c>
       <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
+      <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3">
+        <v>1</v>
+      </c>
+      <c r="P78" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>1</v>
+      </c>
+      <c r="R78" s="3">
+        <v>1</v>
+      </c>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
@@ -3390,10 +4619,14 @@
         <v>1</v>
       </c>
       <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y78" s="7">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79" s="3">
         <v>0.124252443818736</v>
@@ -3414,16 +4647,36 @@
       <c r="H79" s="3">
         <v>1</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1</v>
+      </c>
+      <c r="N79" s="3">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3">
+        <v>1</v>
+      </c>
+      <c r="P79" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>1</v>
+      </c>
+      <c r="R79" s="3">
+        <v>1</v>
+      </c>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
@@ -3431,10 +4684,14 @@
         <v>1</v>
       </c>
       <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y79" s="7">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B80" s="3">
         <v>0.124252443818736</v>
@@ -3455,16 +4712,36 @@
       <c r="H80" s="3">
         <v>1</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
+      <c r="M80" s="3">
+        <v>1</v>
+      </c>
+      <c r="N80" s="3">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3">
+        <v>1</v>
+      </c>
+      <c r="P80" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>1</v>
+      </c>
+      <c r="R80" s="3">
+        <v>1</v>
+      </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
@@ -3472,10 +4749,14 @@
         <v>1</v>
       </c>
       <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y80" s="7">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B81" s="3">
         <v>0.62126221909368395</v>
@@ -3496,16 +4777,36 @@
       <c r="H81" s="3">
         <v>1</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1</v>
+      </c>
+      <c r="P81" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1</v>
+      </c>
+      <c r="R81" s="3">
+        <v>1</v>
+      </c>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
@@ -3513,10 +4814,14 @@
         <v>1</v>
       </c>
       <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y81" s="7">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3541,9 +4846,9 @@
       <c r="V82" s="13"/>
       <c r="W82" s="8"/>
     </row>
-    <row r="83" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3568,9 +4873,9 @@
       <c r="V83" s="13"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B84" s="3">
         <v>0.18849555921538699</v>
@@ -3587,14 +4892,20 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
+      <c r="Q84" s="3">
+        <v>1</v>
+      </c>
+      <c r="R84" s="3">
+        <v>1</v>
+      </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
@@ -3602,10 +4913,14 @@
         <v>1</v>
       </c>
       <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y84" s="7">
+        <f t="shared" ref="Y84:Y88" si="8">SUM(C84:T84)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B85" s="3">
         <v>0.38197186342054801</v>
@@ -3620,14 +4935,20 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="3">
+        <v>1</v>
+      </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
+      <c r="Q85" s="3">
+        <v>1</v>
+      </c>
+      <c r="R85" s="3">
+        <v>1</v>
+      </c>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
@@ -3635,10 +4956,14 @@
         <v>1</v>
       </c>
       <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y85" s="7">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -3657,16 +4982,32 @@
       <c r="H86" s="3">
         <v>1</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="I86" s="3">
+        <v>1</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
       <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
+      <c r="N86" s="3">
+        <v>1</v>
+      </c>
       <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
+      <c r="P86" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>1</v>
+      </c>
+      <c r="R86" s="3">
+        <v>1</v>
+      </c>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
@@ -3674,10 +5015,14 @@
         <v>1</v>
       </c>
       <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y86" s="7">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B87" s="3">
         <v>2.9349887880769699E-3</v>
@@ -3707,10 +5052,14 @@
         <v>1</v>
       </c>
       <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y87" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B88" s="3">
         <v>3.0994211870692699E-2</v>
@@ -3731,8 +5080,12 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
+      <c r="Q88" s="3">
+        <v>1</v>
+      </c>
+      <c r="R88" s="3">
+        <v>1</v>
+      </c>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
@@ -3740,10 +5093,14 @@
         <v>1</v>
       </c>
       <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y88" s="7">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3768,9 +5125,9 @@
       <c r="V89" s="13"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3795,9 +5152,9 @@
       <c r="V90" s="13"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B91" s="3">
         <v>3.7754911870056299E-3</v>
@@ -3810,8 +5167,12 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+      <c r="K91" s="3">
+        <v>1</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -3825,10 +5186,14 @@
         <v>1</v>
       </c>
       <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y91" s="7">
+        <f t="shared" ref="Y91:Y95" si="9">SUM(C91:T91)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B92" s="3">
         <v>0.43752032581233602</v>
@@ -3841,7 +5206,9 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="K92" s="3">
+        <v>1</v>
+      </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -3856,10 +5223,14 @@
         <v>1</v>
       </c>
       <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y92" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -3878,16 +5249,28 @@
         <v>1</v>
       </c>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3">
+        <v>1</v>
+      </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
+      <c r="N93" s="3">
+        <v>1</v>
+      </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
+      <c r="Q93" s="3">
+        <v>1</v>
+      </c>
+      <c r="R93" s="3">
+        <v>1</v>
+      </c>
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
@@ -3895,10 +5278,14 @@
         <v>1</v>
       </c>
       <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y93" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B94" s="4">
         <v>1.3901596443451401E-5</v>
@@ -3926,10 +5313,17 @@
         <v>1</v>
       </c>
       <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y94" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B95" s="3">
         <v>2.0899803155752499E-4</v>
@@ -3948,7 +5342,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
+      <c r="Q95" s="3">
+        <v>1</v>
+      </c>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
@@ -3957,10 +5353,14 @@
         <v>1</v>
       </c>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y95" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3985,9 +5385,9 @@
       <c r="V96" s="12"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4012,9 +5412,9 @@
       <c r="V97" s="12"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4039,9 +5439,9 @@
       <c r="V98" s="12"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4066,9 +5466,9 @@
       <c r="V99" s="12"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4093,9 +5493,9 @@
       <c r="V100" s="12"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B101" s="3">
         <v>0.27999999999999903</v>
@@ -4116,27 +5516,49 @@
       <c r="H101" s="3">
         <v>1</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1</v>
+      </c>
       <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
+      <c r="O101" s="3">
+        <v>1</v>
+      </c>
+      <c r="P101" s="3">
+        <v>1</v>
+      </c>
       <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
+      <c r="R101" s="3">
+        <v>1</v>
+      </c>
       <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
+      <c r="T101" s="3">
+        <v>1</v>
+      </c>
       <c r="U101" s="3"/>
       <c r="V101" s="12">
         <v>1</v>
       </c>
       <c r="W101" s="3"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y101" s="7">
+        <f t="shared" ref="Y101:Y107" si="10">SUM(C101:T101)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B102" s="3">
         <v>0.83999999999999897</v>
@@ -4157,27 +5579,53 @@
       <c r="H102" s="3">
         <v>1</v>
       </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1</v>
+      </c>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3">
+        <v>1</v>
+      </c>
+      <c r="O102" s="3">
+        <v>1</v>
+      </c>
+      <c r="P102" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>1</v>
+      </c>
+      <c r="R102" s="3">
+        <v>1</v>
+      </c>
       <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
+      <c r="T102" s="3">
+        <v>1</v>
+      </c>
       <c r="U102" s="3"/>
       <c r="V102" s="12">
         <v>1</v>
       </c>
       <c r="W102" s="3"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y102" s="7">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
@@ -4198,58 +5646,95 @@
       <c r="H103" s="3">
         <v>1</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+      <c r="L103" s="3">
+        <v>1</v>
+      </c>
+      <c r="M103" s="3">
+        <v>1</v>
+      </c>
+      <c r="N103" s="3">
+        <v>1</v>
+      </c>
+      <c r="O103" s="3">
+        <v>1</v>
+      </c>
+      <c r="P103" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>1</v>
+      </c>
+      <c r="R103" s="3">
+        <v>1</v>
+      </c>
       <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
+      <c r="T103" s="3">
+        <v>1</v>
+      </c>
       <c r="U103" s="3"/>
       <c r="V103" s="12">
         <v>1</v>
       </c>
       <c r="W103" s="3"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="3">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="3"/>
-      <c r="V104" s="12">
-        <v>1</v>
-      </c>
-      <c r="W104" s="3"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y103" s="7">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="15">
+        <v>1.2599999999999901E-3</v>
+      </c>
+      <c r="C104" s="15">
+        <v>1</v>
+      </c>
+      <c r="D104" s="15">
+        <v>1</v>
+      </c>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="15"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="16">
+        <v>1</v>
+      </c>
+      <c r="W104" s="15"/>
+      <c r="X104" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y104" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" s="3">
         <v>3.7631999999999902E-2</v>
@@ -4267,57 +5752,86 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+      <c r="K105" s="3">
+        <v>1</v>
+      </c>
       <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
+      <c r="M105" s="3">
+        <v>1</v>
+      </c>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
+      <c r="P105" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>1</v>
+      </c>
+      <c r="R105" s="3">
+        <v>1</v>
+      </c>
       <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
+      <c r="T105" s="3">
+        <v>1</v>
+      </c>
       <c r="U105" s="3"/>
       <c r="V105" s="12">
         <v>1</v>
       </c>
       <c r="W105" s="3"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B106" s="3">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="3"/>
-      <c r="V106" s="12">
-        <v>1</v>
-      </c>
-      <c r="W106" s="3"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y105" s="7">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="15">
+        <v>1.2599999999999901E-3</v>
+      </c>
+      <c r="C106" s="15">
+        <v>1</v>
+      </c>
+      <c r="D106" s="15">
+        <v>1</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
+      <c r="U106" s="15"/>
+      <c r="V106" s="16">
+        <v>1</v>
+      </c>
+      <c r="W106" s="15"/>
+      <c r="X106" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y106" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B107" s="3">
         <v>0.23519999999999899</v>
@@ -4337,26 +5851,44 @@
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+      <c r="K107" s="3">
+        <v>1</v>
+      </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
+      <c r="O107" s="3">
+        <v>1</v>
+      </c>
+      <c r="P107" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>1</v>
+      </c>
+      <c r="R107" s="3">
+        <v>1</v>
+      </c>
       <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
+      <c r="T107" s="3">
+        <v>1</v>
+      </c>
       <c r="U107" s="3"/>
       <c r="V107" s="12">
         <v>1</v>
       </c>
       <c r="W107" s="3"/>
-    </row>
-    <row r="108" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y107" s="7">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4381,9 +5913,9 @@
       <c r="V108" s="13"/>
       <c r="W108" s="8"/>
     </row>
-    <row r="109" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -4408,9 +5940,9 @@
       <c r="V109" s="13"/>
       <c r="W109" s="8"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B110" s="3">
         <v>0.64166666666666605</v>
@@ -4431,27 +5963,53 @@
       <c r="H110" s="3">
         <v>1</v>
       </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
+      <c r="I110" s="3">
+        <v>1</v>
+      </c>
+      <c r="J110" s="3">
+        <v>1</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1</v>
+      </c>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
+      <c r="M110" s="3">
+        <v>1</v>
+      </c>
+      <c r="N110" s="3">
+        <v>1</v>
+      </c>
+      <c r="O110" s="3">
+        <v>1</v>
+      </c>
+      <c r="P110" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>1</v>
+      </c>
+      <c r="R110" s="3">
+        <v>1</v>
+      </c>
       <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
+      <c r="T110" s="3">
+        <v>1</v>
+      </c>
       <c r="U110" s="3"/>
       <c r="V110" s="12">
         <v>1</v>
       </c>
       <c r="W110" s="3"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y110" s="7">
+        <f t="shared" ref="Y110:Y114" si="11">SUM(C110:T110)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B111" s="3">
         <v>1.65</v>
@@ -4472,27 +6030,53 @@
       <c r="H111" s="3">
         <v>1</v>
       </c>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
+      <c r="I111" s="3">
+        <v>1</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1</v>
+      </c>
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
+      <c r="M111" s="3">
+        <v>1</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1</v>
+      </c>
+      <c r="O111" s="3">
+        <v>1</v>
+      </c>
+      <c r="P111" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>1</v>
+      </c>
+      <c r="R111" s="3">
+        <v>1</v>
+      </c>
       <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
+      <c r="T111" s="3">
+        <v>1</v>
+      </c>
       <c r="U111" s="3"/>
       <c r="V111" s="12">
         <v>1</v>
       </c>
       <c r="W111" s="3"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y111" s="7">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B112" s="3">
         <v>0.13124999999999901</v>
@@ -4513,58 +6097,93 @@
       <c r="H112" s="3">
         <v>1</v>
       </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
       <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
+      <c r="M112" s="3">
+        <v>1</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1</v>
+      </c>
+      <c r="O112" s="3">
+        <v>1</v>
+      </c>
+      <c r="P112" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>1</v>
+      </c>
+      <c r="R112" s="3">
+        <v>1</v>
+      </c>
       <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
+      <c r="T112" s="3">
+        <v>1</v>
+      </c>
       <c r="U112" s="3"/>
       <c r="V112" s="12">
         <v>1</v>
       </c>
       <c r="W112" s="3"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="3">
-        <v>4.4916666666666598E-2</v>
-      </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="12">
-        <v>1</v>
-      </c>
-      <c r="W113" s="3"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y112" s="7">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="15">
+        <v>1.5720833333333298E-2</v>
+      </c>
+      <c r="C113" s="15">
+        <v>1</v>
+      </c>
+      <c r="D113" s="15">
+        <v>1</v>
+      </c>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="15"/>
+      <c r="T113" s="15"/>
+      <c r="U113" s="15"/>
+      <c r="V113" s="16">
+        <v>1</v>
+      </c>
+      <c r="W113" s="15"/>
+      <c r="X113" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y113" s="17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B114" s="3">
         <v>2.0796874999999999</v>
@@ -4584,15 +6203,33 @@
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
+      <c r="J114" s="3">
+        <v>1</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1</v>
+      </c>
+      <c r="L114" s="3">
+        <v>1</v>
+      </c>
+      <c r="M114" s="3">
+        <v>1</v>
+      </c>
+      <c r="N114" s="3">
+        <v>1</v>
+      </c>
+      <c r="O114" s="3">
+        <v>1</v>
+      </c>
+      <c r="P114" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>1</v>
+      </c>
+      <c r="R114" s="3">
+        <v>1</v>
+      </c>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
@@ -4600,10 +6237,14 @@
         <v>1</v>
       </c>
       <c r="W114" s="3"/>
-    </row>
-    <row r="115" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y114" s="7">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -4628,9 +6269,9 @@
       <c r="V115" s="13"/>
       <c r="W115" s="8"/>
     </row>
-    <row r="116" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -4655,9 +6296,9 @@
       <c r="V116" s="13"/>
       <c r="W116" s="8"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B117" s="3">
         <v>0.625</v>
@@ -4678,16 +6319,32 @@
       <c r="H117" s="3">
         <v>1</v>
       </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
+      <c r="I117" s="3">
+        <v>1</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
+      <c r="L117" s="3">
+        <v>1</v>
+      </c>
       <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
+      <c r="N117" s="3">
+        <v>1</v>
+      </c>
+      <c r="O117" s="3">
+        <v>1</v>
+      </c>
       <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
+      <c r="Q117" s="3">
+        <v>1</v>
+      </c>
+      <c r="R117" s="3">
+        <v>1</v>
+      </c>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
@@ -4695,10 +6352,14 @@
         <v>1</v>
       </c>
       <c r="W117" s="3"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y117" s="7">
+        <f t="shared" ref="Y117:Y121" si="12">SUM(C117:T117)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B118" s="3">
         <v>1.875</v>
@@ -4714,26 +6375,46 @@
         <v>1</v>
       </c>
       <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
+      <c r="J118" s="3">
+        <v>1</v>
+      </c>
+      <c r="K118" s="3">
+        <v>1</v>
+      </c>
+      <c r="L118" s="3">
+        <v>1</v>
+      </c>
       <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
+      <c r="N118" s="3">
+        <v>1</v>
+      </c>
       <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
+      <c r="P118" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>1</v>
+      </c>
+      <c r="R118" s="3">
+        <v>1</v>
+      </c>
       <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
+      <c r="T118" s="3">
+        <v>1</v>
+      </c>
       <c r="U118" s="3"/>
       <c r="V118" s="12">
         <v>1</v>
       </c>
       <c r="W118" s="3"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y118" s="7">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B119" s="3">
         <v>0.22499999999999901</v>
@@ -4749,15 +6430,25 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
+      <c r="J119" s="3">
+        <v>1</v>
+      </c>
+      <c r="K119" s="3">
+        <v>1</v>
+      </c>
+      <c r="L119" s="3">
+        <v>1</v>
+      </c>
       <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
+      <c r="N119" s="3">
+        <v>1</v>
+      </c>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
+      <c r="R119" s="3">
+        <v>1</v>
+      </c>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
@@ -4765,10 +6456,14 @@
         <v>1</v>
       </c>
       <c r="W119" s="3"/>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y119" s="7">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B120" s="3">
         <v>5.0223214285714197E-2</v>
@@ -4781,14 +6476,22 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
+      <c r="L120" s="3">
+        <v>1</v>
+      </c>
       <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
+      <c r="N120" s="3">
+        <v>1</v>
+      </c>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
+      <c r="R120" s="3">
+        <v>1</v>
+      </c>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
@@ -4796,10 +6499,14 @@
         <v>1</v>
       </c>
       <c r="W120" s="3"/>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y120" s="7">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B121" s="3">
         <v>2.34375</v>
@@ -4813,26 +6520,42 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
+      <c r="J121" s="3">
+        <v>1</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1</v>
+      </c>
+      <c r="L121" s="3">
+        <v>1</v>
+      </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
-      <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
+      <c r="Q121" s="3">
+        <v>1</v>
+      </c>
+      <c r="R121" s="3">
+        <v>1</v>
+      </c>
       <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
+      <c r="T121" s="3">
+        <v>1</v>
+      </c>
       <c r="U121" s="3"/>
       <c r="V121" s="12">
         <v>1</v>
       </c>
       <c r="W121" s="3"/>
-    </row>
-    <row r="122" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y121" s="7">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -4857,9 +6580,9 @@
       <c r="V122" s="13"/>
       <c r="W122" s="8"/>
     </row>
-    <row r="123" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -4884,9 +6607,9 @@
       <c r="V123" s="13"/>
       <c r="W123" s="8"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B124" s="3">
         <v>2.5</v>
@@ -4902,26 +6625,38 @@
         <v>1</v>
       </c>
       <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="J124" s="3">
+        <v>1</v>
+      </c>
       <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
+      <c r="L124" s="3">
+        <v>1</v>
+      </c>
       <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
+      <c r="N124" s="3">
+        <v>1</v>
+      </c>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
+      <c r="T124" s="3">
+        <v>1</v>
+      </c>
       <c r="U124" s="3"/>
       <c r="V124" s="12">
         <v>1</v>
       </c>
       <c r="W124" s="3"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y124" s="7">
+        <f t="shared" ref="Y124:Y129" si="13">SUM(C124:T124)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B125" s="3">
         <v>1.5</v>
@@ -4937,26 +6672,40 @@
         <v>1</v>
       </c>
       <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
+      <c r="J125" s="3">
+        <v>1</v>
+      </c>
+      <c r="K125" s="3">
+        <v>1</v>
+      </c>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
+      <c r="N125" s="3">
+        <v>1</v>
+      </c>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
+      <c r="Q125" s="3">
+        <v>1</v>
+      </c>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
+      <c r="T125" s="3">
+        <v>1</v>
+      </c>
       <c r="U125" s="3"/>
       <c r="V125" s="12">
         <v>1</v>
       </c>
       <c r="W125" s="3"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y125" s="7">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B126" s="3">
         <v>0.5625</v>
@@ -4970,11 +6719,19 @@
         <v>1</v>
       </c>
       <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
+      <c r="J126" s="3">
+        <v>1</v>
+      </c>
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
+      <c r="L126" s="3">
+        <v>1</v>
+      </c>
       <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
+      <c r="N126" s="3">
+        <v>1</v>
+      </c>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
@@ -4986,10 +6743,14 @@
         <v>1</v>
       </c>
       <c r="W126" s="3"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y126" s="7">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B127" s="3">
         <v>1.125</v>
@@ -5005,15 +6766,25 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
+      <c r="J127" s="3">
+        <v>1</v>
+      </c>
+      <c r="K127" s="3">
+        <v>1</v>
+      </c>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
+      <c r="N127" s="3">
+        <v>1</v>
+      </c>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
+      <c r="Q127" s="3">
+        <v>1</v>
+      </c>
+      <c r="R127" s="3">
+        <v>1</v>
+      </c>
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
@@ -5021,10 +6792,14 @@
         <v>1</v>
       </c>
       <c r="W127" s="3"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y127" s="7">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B128" s="3">
         <v>6.6964285714285703</v>
@@ -5040,26 +6815,42 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+      <c r="J128" s="3">
+        <v>1</v>
+      </c>
+      <c r="K128" s="3">
+        <v>1</v>
+      </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
+      <c r="N128" s="3">
+        <v>1</v>
+      </c>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
+      <c r="Q128" s="3">
+        <v>1</v>
+      </c>
+      <c r="R128" s="3">
+        <v>1</v>
+      </c>
       <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
+      <c r="T128" s="3">
+        <v>1</v>
+      </c>
       <c r="U128" s="3"/>
       <c r="V128" s="12">
         <v>1</v>
       </c>
       <c r="W128" s="3"/>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y128" s="7">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5086,78 +6877,78 @@
       </c>
       <c r="W129" s="3"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C131" s="14">
-        <f t="shared" ref="C131:U131" si="0">SUM(C6:C130)</f>
+        <f t="shared" ref="C131:T131" si="14">SUM(C6:C130)</f>
+        <v>65</v>
+      </c>
+      <c r="D131" s="14">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E131" s="14">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="F131" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="14">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="H131" s="14">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="I131" s="14">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="J131" s="14">
+        <f t="shared" si="14"/>
+        <v>66</v>
+      </c>
+      <c r="K131" s="14">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="L131" s="14">
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
-      <c r="D131" s="14">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="E131" s="14">
-        <f t="shared" si="0"/>
+      <c r="M131" s="14">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="N131" s="14">
+        <f t="shared" si="14"/>
+        <v>48</v>
+      </c>
+      <c r="O131" s="14">
+        <f t="shared" si="14"/>
+        <v>61</v>
+      </c>
+      <c r="P131" s="14">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="Q131" s="14">
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="F131" s="14">
-        <f t="shared" si="0"/>
+      <c r="R131" s="14">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="S131" s="14">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G131" s="14">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="H131" s="14">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="I131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="T131" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>40</v>
       </c>
       <c r="U131" s="14"/>
       <c r="V131" s="14">
@@ -5165,6 +6956,146 @@
         <v>94</v>
       </c>
     </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C132" s="7">
+        <f>C131+4</f>
+        <v>69</v>
+      </c>
+      <c r="D132" s="7">
+        <f t="shared" ref="D132:T132" si="15">D131+4</f>
+        <v>79</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="G132" s="7">
+        <f t="shared" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="H132" s="7">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="I132" s="7">
+        <f t="shared" si="15"/>
+        <v>63</v>
+      </c>
+      <c r="J132" s="7">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="K132" s="7">
+        <f t="shared" si="15"/>
+        <v>78</v>
+      </c>
+      <c r="L132" s="7">
+        <f t="shared" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="M132" s="7">
+        <f t="shared" si="15"/>
+        <v>61</v>
+      </c>
+      <c r="N132" s="7">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="O132" s="7">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="P132" s="7">
+        <f t="shared" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="Q132" s="7">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="R132" s="7">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="T132" s="7">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C133" s="18">
+        <f>C132/$V131</f>
+        <v>0.73404255319148937</v>
+      </c>
+      <c r="D133" s="18">
+        <f t="shared" ref="D133:T133" si="16">D132/$V131</f>
+        <v>0.84042553191489366</v>
+      </c>
+      <c r="E133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.84042553191489366</v>
+      </c>
+      <c r="F133" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.62765957446808507</v>
+      </c>
+      <c r="H133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.73404255319148937</v>
+      </c>
+      <c r="I133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.67021276595744683</v>
+      </c>
+      <c r="J133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="K133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.82978723404255317</v>
+      </c>
+      <c r="L133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="M133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.64893617021276595</v>
+      </c>
+      <c r="N133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="O133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.69148936170212771</v>
+      </c>
+      <c r="P133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="Q133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.84042553191489366</v>
+      </c>
+      <c r="R133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="S133" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="18">
+        <f t="shared" si="16"/>
+        <v>0.46808510638297873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
